--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.171359</v>
+        <v>2.862146333333333</v>
       </c>
       <c r="H2">
-        <v>3.514077</v>
+        <v>8.586439</v>
       </c>
       <c r="I2">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="J2">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9190126666666667</v>
+        <v>1.677453</v>
       </c>
       <c r="N2">
-        <v>2.757038</v>
+        <v>5.032359</v>
       </c>
       <c r="O2">
-        <v>0.1549790623755428</v>
+        <v>0.2543757648546719</v>
       </c>
       <c r="P2">
-        <v>0.1549790623755428</v>
+        <v>0.2543757648546719</v>
       </c>
       <c r="Q2">
-        <v>1.076493758214</v>
+        <v>4.801115953289</v>
       </c>
       <c r="R2">
-        <v>9.688443823926001</v>
+        <v>43.210043579601</v>
       </c>
       <c r="S2">
-        <v>0.146842875028132</v>
+        <v>0.2487354425878384</v>
       </c>
       <c r="T2">
-        <v>0.1468428750281319</v>
+        <v>0.2487354425878384</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.171359</v>
+        <v>2.862146333333333</v>
       </c>
       <c r="H3">
-        <v>3.514077</v>
+        <v>8.586439</v>
       </c>
       <c r="I3">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="J3">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.101463</v>
       </c>
       <c r="O3">
-        <v>0.6240372191956658</v>
+        <v>0.5611569328879042</v>
       </c>
       <c r="P3">
-        <v>0.6240372191956658</v>
+        <v>0.5611569328879042</v>
       </c>
       <c r="Q3">
-        <v>4.334599532738999</v>
+        <v>10.59133720669522</v>
       </c>
       <c r="R3">
-        <v>39.01139579465099</v>
+        <v>95.32203486025699</v>
       </c>
       <c r="S3">
-        <v>0.5912761245722512</v>
+        <v>0.5487142933716598</v>
       </c>
       <c r="T3">
-        <v>0.5912761245722512</v>
+        <v>0.5487142933716598</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.171359</v>
+        <v>2.862146333333333</v>
       </c>
       <c r="H4">
-        <v>3.514077</v>
+        <v>8.586439</v>
       </c>
       <c r="I4">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="J4">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.208722</v>
+        <v>1.148238333333333</v>
       </c>
       <c r="N4">
-        <v>3.626166</v>
+        <v>3.444715</v>
       </c>
       <c r="O4">
-        <v>0.2038346249482497</v>
+        <v>0.174123510034034</v>
       </c>
       <c r="P4">
-        <v>0.2038346249482497</v>
+        <v>0.174123510034034</v>
       </c>
       <c r="Q4">
-        <v>1.415847393198</v>
+        <v>3.286426135542778</v>
       </c>
       <c r="R4">
-        <v>12.742626538782</v>
+        <v>29.577835219885</v>
       </c>
       <c r="S4">
-        <v>0.1931335878465444</v>
+        <v>0.1702626362932307</v>
       </c>
       <c r="T4">
-        <v>0.1931335878465444</v>
+        <v>0.1702626362932306</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.171359</v>
+        <v>2.862146333333333</v>
       </c>
       <c r="H5">
-        <v>3.514077</v>
+        <v>8.586439</v>
       </c>
       <c r="I5">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="J5">
-        <v>0.9475013771363814</v>
+        <v>0.9778268096017091</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1016926666666667</v>
+        <v>0.06821100000000001</v>
       </c>
       <c r="N5">
-        <v>0.305078</v>
+        <v>0.204633</v>
       </c>
       <c r="O5">
-        <v>0.01714909348054174</v>
+        <v>0.01034379222338988</v>
       </c>
       <c r="P5">
-        <v>0.01714909348054174</v>
+        <v>0.01034379222338988</v>
       </c>
       <c r="Q5">
-        <v>0.119118620334</v>
+        <v>0.195229863543</v>
       </c>
       <c r="R5">
-        <v>1.072067583006</v>
+        <v>1.757068771887</v>
       </c>
       <c r="S5">
-        <v>0.01624878968945384</v>
+        <v>0.0101144373489803</v>
       </c>
       <c r="T5">
-        <v>0.01624878968945384</v>
+        <v>0.0101144373489803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>0.194706</v>
       </c>
       <c r="I6">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="J6">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9190126666666667</v>
+        <v>1.677453</v>
       </c>
       <c r="N6">
-        <v>2.757038</v>
+        <v>5.032359</v>
       </c>
       <c r="O6">
-        <v>0.1549790623755428</v>
+        <v>0.2543757648546719</v>
       </c>
       <c r="P6">
-        <v>0.1549790623755428</v>
+        <v>0.2543757648546719</v>
       </c>
       <c r="Q6">
-        <v>0.059645760092</v>
+        <v>0.108870054606</v>
       </c>
       <c r="R6">
-        <v>0.536811840828</v>
+        <v>0.9798304914539999</v>
       </c>
       <c r="S6">
-        <v>0.008136187347410844</v>
+        <v>0.005640322266833512</v>
       </c>
       <c r="T6">
-        <v>0.008136187347410843</v>
+        <v>0.005640322266833512</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.194706</v>
       </c>
       <c r="I7">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="J7">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>11.101463</v>
       </c>
       <c r="O7">
-        <v>0.6240372191956658</v>
+        <v>0.5611569328879042</v>
       </c>
       <c r="P7">
-        <v>0.6240372191956658</v>
+        <v>0.5611569328879042</v>
       </c>
       <c r="Q7">
         <v>0.240169050542</v>
@@ -883,10 +883,10 @@
         <v>2.161521454878</v>
       </c>
       <c r="S7">
-        <v>0.03276109462341455</v>
+        <v>0.01244263951624444</v>
       </c>
       <c r="T7">
-        <v>0.03276109462341455</v>
+        <v>0.01244263951624444</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.194706</v>
       </c>
       <c r="I8">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="J8">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.208722</v>
+        <v>1.148238333333333</v>
       </c>
       <c r="N8">
-        <v>3.626166</v>
+        <v>3.444715</v>
       </c>
       <c r="O8">
-        <v>0.2038346249482497</v>
+        <v>0.174123510034034</v>
       </c>
       <c r="P8">
-        <v>0.2038346249482497</v>
+        <v>0.174123510034034</v>
       </c>
       <c r="Q8">
-        <v>0.07844847524399999</v>
+        <v>0.07452296430999999</v>
       </c>
       <c r="R8">
-        <v>0.7060362771959999</v>
+        <v>0.6707066787899999</v>
       </c>
       <c r="S8">
-        <v>0.0107010371017053</v>
+        <v>0.003860873740803349</v>
       </c>
       <c r="T8">
-        <v>0.0107010371017053</v>
+        <v>0.003860873740803348</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.194706</v>
       </c>
       <c r="I9">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="J9">
-        <v>0.0524986228636186</v>
+        <v>0.02217319039829088</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1016926666666667</v>
+        <v>0.06821100000000001</v>
       </c>
       <c r="N9">
-        <v>0.305078</v>
+        <v>0.204633</v>
       </c>
       <c r="O9">
-        <v>0.01714909348054174</v>
+        <v>0.01034379222338988</v>
       </c>
       <c r="P9">
-        <v>0.01714909348054174</v>
+        <v>0.01034379222338988</v>
       </c>
       <c r="Q9">
-        <v>0.006600057452</v>
+        <v>0.004427030322000001</v>
       </c>
       <c r="R9">
-        <v>0.059400517068</v>
+        <v>0.039843272898</v>
       </c>
       <c r="S9">
-        <v>0.0009003037910879014</v>
+        <v>0.0002293548744095845</v>
       </c>
       <c r="T9">
-        <v>0.0009003037910879012</v>
+        <v>0.0002293548744095844</v>
       </c>
     </row>
   </sheetData>
